--- a/Standup_Meeting_StyleSync_G11.xlsx
+++ b/Standup_Meeting_StyleSync_G11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliao/Documents/BCIT - CIT:CYBER/SEM - 2/MINI_TERM/ACIT_2911-Agile/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A259F95-D58A-FD41-B001-01FCCA45E621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ED7B6-3E81-7443-A5B4-965C8E8F33E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="760" windowWidth="29300" windowHeight="18880" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
   <si>
     <t>StyleSync</t>
   </si>
@@ -215,13 +215,165 @@
 - As Scrum Master, it was difficult keeping overthinking
 - Using a MacOS Computer with M2 Chip, may cause issues when reading files from WindowsOS</t>
   </si>
+  <si>
+    <t>Finish Functionalities
+Possible Category filters for app</t>
+  </si>
+  <si>
+    <t>Admistrative work
+Assist Presentation</t>
+  </si>
+  <si>
+    <t>Work on basic Layout of Code
+Discuss text stats - Utilizing Python for App
+File Structure Layout
+Back-end Look into Flask, SQLite, SQLalchemy
+Middle-Ware Flask Login
+Front-end HTML Bootstrap</t>
+  </si>
+  <si>
+    <t>Working on
+Industry and Professional Layout of File structure
+Basic Functionality Look into (Home Page)
+Have the server up and running
+Basic Layout or vision</t>
+  </si>
+  <si>
+    <t>Choosing the front-end framework
+Looking for things that are useful for the team
+Determinine which language would best fit the sitaution and researching</t>
+  </si>
+  <si>
+    <t>Discuss functionalities of APP
+Simple WIP design of front end alongside Misha
+General Rough Draft</t>
+  </si>
+  <si>
+    <t>Administrative Work (Peer Evaluation)
+Power Point, continue working on layout -&gt; BrainStorming</t>
+  </si>
+  <si>
+    <t>Layout Designs that may conflict with opinions and design layout
+Slightly off to desired outcomes (Thinking Ahead)</t>
+  </si>
+  <si>
+    <t>Filling out Proposal, could not finish everything
+- Did not decide what program we are going to use
+- What approaches we are going to do for the project
+- Loud</t>
+  </si>
+  <si>
+    <t>Lack of Experience, causing potential feature creep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completition of Administration Package:
+- Notes for PowerPoint (Adding Contents to Slide)
+- Peer Evaluation
+- Type out Stand-up Meeting Template
+- Week 01 Status Report
+</t>
+  </si>
+  <si>
+    <t>Administration Work:
+- Reviewing the Team Charter
+- Reviewing the Project Proposal, adding the information required for deliverables
+Establishing the Notes for the Week 1 Deliverable Presentation</t>
+  </si>
+  <si>
+    <t>Brainstorming UI Stuff
+- Mock-up wsing Figma of front end (Quick Sketch)
+User Stories, added ideas to trello</t>
+  </si>
+  <si>
+    <t>Administrative:
+- Peer Evaluation
+- Login-Page Design (possibilities) UI, working alongside Matt</t>
+  </si>
+  <si>
+    <t>Group Presentation</t>
+  </si>
+  <si>
+    <t>Administrative work
+- Team Charter
+- Proposal Draft</t>
+  </si>
+  <si>
+    <t>Power Point
+- Adding Content to Slides
+- Share with everyone so people can put inputs
+Administration
+- Peer Evaluation</t>
+  </si>
+  <si>
+    <t>Filling out Proposal, could not finish everything
+- Did not decide what program we are going to use
+- What approaches we are going to do for the project
+- Loud Room</t>
+  </si>
+  <si>
+    <t>Administration Work:
+- Completion of Peer Evaluation
+- Reviewed and Added info to Project Proposal Draft
+Researched Tools used for this project
+- SQLite
+- Python</t>
+  </si>
+  <si>
+    <t>Sleep Depreviation</t>
+  </si>
+  <si>
+    <t>Continued Working on Prelim Code:
+- Log-in Page
+- Register Page
+** Note It is in prep for Sprint #1, trying out different tools
+Administration:
+- Peer Evaluation</t>
+  </si>
+  <si>
+    <t>Administration:
+- Completition Peer Evaluation
+- Review Presentation
+Project:
+- UI Figma Basic Layout</t>
+  </si>
+  <si>
+    <t>Administration:
+- Completition of Peer Evaluation
+- Completition of PPT Presentation</t>
+  </si>
+  <si>
+    <t>Currently Moving Residency</t>
+  </si>
+  <si>
+    <t>Administration Work:
+- Completiton of Week 1 Status Report
+- Completition of Peer Evaluation
+- Worked on Project Proposal Draft
+Project:
+- Review PPT Deliverables to ensure knowledge of project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration Work:
+- Completition of Peer Evaluation
+– Worked PPTX 
+Project:
+- Looked into how to set up a Login Page UI
+</t>
+  </si>
+  <si>
+    <t>Course Work, and lack of coffee</t>
+  </si>
+  <si>
+    <t>Thursday Evening Work Shift till 10 pm
+Lack of sleep, 4 hours of sleep (Sleep Deprivation)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -580,126 +732,144 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1038,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227802D-0A4C-E940-B467-943470A95840}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,388 +1218,461 @@
     <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="45.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="21">
+      <c r="D4" s="37"/>
+      <c r="E4" s="41">
         <v>45411</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="F9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="14" t="s">
+      <c r="F10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+      <c r="F19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="F20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1465,310 +1708,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="28"/>
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Standup_Meeting_StyleSync_G11.xlsx
+++ b/Standup_Meeting_StyleSync_G11.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliao/Documents/BCIT - CIT:CYBER/SEM - 2/MINI_TERM/ACIT_2911-Agile/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ED7B6-3E81-7443-A5B4-965C8E8F33E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237BC1A-F91E-DA44-AB6B-3B7A993CB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
     <sheet name="Week 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Week 3" sheetId="7" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
   <si>
     <t>StyleSync</t>
   </si>
@@ -112,9 +114,6 @@
   </si>
   <si>
     <t>Initial Course for ACIT 2911</t>
-  </si>
-  <si>
-    <t>&lt;Date&gt;</t>
   </si>
   <si>
     <t>Review Project Scope for ACIT 2911</t>
@@ -366,6 +365,12 @@
   <si>
     <t>Thursday Evening Work Shift till 10 pm
 Lack of sleep, 4 hours of sleep (Sleep Deprivation)</t>
+  </si>
+  <si>
+    <t>Group Presentation
+Administration Work:
+- Team Charter Completion
+- Project Proposal Completion</t>
   </si>
 </sst>
 </file>
@@ -830,6 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227802D-0A4C-E940-B467-943470A95840}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,25 +1254,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="41">
+      <c r="D4" s="38"/>
+      <c r="E4" s="42">
         <v>45411</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1290,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1295,20 +1300,20 @@
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1316,20 +1321,20 @@
         <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>23</v>
@@ -1350,7 +1355,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1360,20 +1365,20 @@
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1381,20 +1386,20 @@
         <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1405,17 +1410,17 @@
         <v>23</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1425,20 +1430,20 @@
         <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1446,20 +1451,20 @@
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1470,17 +1475,17 @@
         <v>23</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1490,20 +1495,20 @@
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1511,20 +1516,20 @@
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1535,17 +1540,17 @@
         <v>23</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1555,20 +1560,20 @@
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1576,20 +1581,20 @@
         <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1600,17 +1605,17 @@
         <v>23</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1620,20 +1625,20 @@
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1641,20 +1646,20 @@
         <v>24</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1665,13 +1670,13 @@
         <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1701,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,25 +1737,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="42">
+        <v>45418</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1768,246 +1773,816 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="7"/>
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="8"/>
       <c r="E7" s="14"/>
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="8"/>
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="11"/>
       <c r="E11" s="17"/>
       <c r="F11" s="11"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="7"/>
       <c r="E12" s="13"/>
       <c r="F12" s="7"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="8"/>
       <c r="E13" s="14"/>
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="9"/>
       <c r="E14" s="15"/>
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="10"/>
       <c r="E15" s="16"/>
       <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="8"/>
       <c r="E16" s="14"/>
       <c r="F16" s="8"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="11"/>
       <c r="E17" s="17"/>
       <c r="F17" s="11"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="7"/>
       <c r="E18" s="13"/>
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="8"/>
       <c r="E19" s="14"/>
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="9"/>
       <c r="E20" s="15"/>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="10"/>
       <c r="E21" s="16"/>
       <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="8"/>
       <c r="E22" s="14"/>
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6FC167-3FDE-7E49-97B7-16A8389B2246}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="30.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="42">
+        <v>45425</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D11571-EA10-1F4D-A017-39A81B950129}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="30.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="42">
+        <v>45432</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
       <c r="F23" s="9"/>

--- a/Standup_Meeting_StyleSync_G11.xlsx
+++ b/Standup_Meeting_StyleSync_G11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliao/Documents/BCIT - CIT:CYBER/SEM - 2/MINI_TERM/ACIT_2911-Agile/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2efca9f02ab0b566/Desktop/school work omegalul/Term 2/5 week term/StyleSync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237BC1A-F91E-DA44-AB6B-3B7A993CB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{E237BC1A-F91E-DA44-AB6B-3B7A993CB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1703ADF-AF4A-4818-B2E0-A481162B41BD}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="119">
   <si>
     <t>StyleSync</t>
   </si>
@@ -371,6 +371,173 @@
 Administration Work:
 - Team Charter Completion
 - Project Proposal Completion</t>
+  </si>
+  <si>
+    <t>Figured out to make tags and implement</t>
+  </si>
+  <si>
+    <t>Improved ERD, added sub catergories</t>
+  </si>
+  <si>
+    <t>Set up branches and work flow. Database design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New database design? </t>
+  </si>
+  <si>
+    <t>Git is hard and change issues. Database issues, deliveries</t>
+  </si>
+  <si>
+    <t>Git problem</t>
+  </si>
+  <si>
+    <t>Discuss branch issues, Admin work</t>
+  </si>
+  <si>
+    <t>Found images for html pages</t>
+  </si>
+  <si>
+    <t>Merging login page, regristration page</t>
+  </si>
+  <si>
+    <t>Understand branching and database, to build test case scenario. Writing notes on ppt</t>
+  </si>
+  <si>
+    <t>Database with Angad to streamline. Relationships</t>
+  </si>
+  <si>
+    <t>Syncing up with Git. Database issues. Need more screens</t>
+  </si>
+  <si>
+    <t>Learning github, GPS location for weather</t>
+  </si>
+  <si>
+    <t>Did routes, css, html with Matthew</t>
+  </si>
+  <si>
+    <t>Lots of merging and bringing, and GIT problems. Getting ready for Friday presentation.</t>
+  </si>
+  <si>
+    <t>Routes, HTML, CSS with Misha, Branching</t>
+  </si>
+  <si>
+    <t>Difficult to find database structure and uncertainy</t>
+  </si>
+  <si>
+    <t>Database work</t>
+  </si>
+  <si>
+    <t>More database work</t>
+  </si>
+  <si>
+    <t>Pokemon, learning new tools</t>
+  </si>
+  <si>
+    <t>Created test routes
+Created homepage.html
+Split Homepage and Home</t>
+  </si>
+  <si>
+    <t>Keep working on wardrobe.html
+More html and push</t>
+  </si>
+  <si>
+    <t>Doing course work
+repo problem</t>
+  </si>
+  <si>
+    <t>Login page
+regristration page</t>
+  </si>
+  <si>
+    <t>Finding logos
+Admin work
+front end design for login and regristration page</t>
+  </si>
+  <si>
+    <t>Learning new tools
+settling in new home</t>
+  </si>
+  <si>
+    <t>Reviewing case studies
+class diagram,
+creating test case</t>
+  </si>
+  <si>
+    <t>Test cases 
+admin work
+assisting version control</t>
+  </si>
+  <si>
+    <t>Sunday is disconnect day</t>
+  </si>
+  <si>
+    <t>did homepage.html</t>
+  </si>
+  <si>
+    <t>API for weather and location for implemenation</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Design and </t>
+  </si>
+  <si>
+    <t>Git problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did not work much on project</t>
+  </si>
+  <si>
+    <t>Database Design+D6:D22D9DD6:D23</t>
+  </si>
+  <si>
+    <t>API 
+Branching
+ Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branching
+Login/Regristration
+database </t>
+  </si>
+  <si>
+    <t>Understanding Git and making branches</t>
+  </si>
+  <si>
+    <t>Designed New outfit page</t>
+  </si>
+  <si>
+    <t>Work with Misha to continue designing webpages for homepage, new outfits, and wardrobe</t>
+  </si>
+  <si>
+    <t>Git problems and pushing</t>
+  </si>
+  <si>
+    <t>Design regristration page</t>
+  </si>
+  <si>
+    <t>Admin work such as the Powerpoint</t>
+  </si>
+  <si>
+    <t>Learning how git works and api routes</t>
+  </si>
+  <si>
+    <t>Continued working on database with Angad, fixed the ERD</t>
+  </si>
+  <si>
+    <t>Admin work and building the database</t>
+  </si>
+  <si>
+    <t>Merge conflicts and version control</t>
+  </si>
+  <si>
+    <t>Research on the weather API
+Research on git</t>
+  </si>
+  <si>
+    <t>Continue working on the design on html pages</t>
   </si>
 </sst>
 </file>
@@ -737,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,6 +1003,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,6 +1062,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,23 +1387,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227802D-0A4C-E940-B467-943470A95840}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="75" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1253,26 +1427,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="43">
         <v>45411</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1463,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1312,8 +1486,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1333,8 +1507,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1354,8 +1528,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1377,8 +1551,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1398,8 +1572,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1419,8 +1593,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1442,8 +1616,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1463,8 +1637,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1484,8 +1658,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1507,8 +1681,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1528,8 +1702,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1723,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1572,8 +1746,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1593,8 +1767,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:7" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1614,8 +1788,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1637,8 +1811,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1658,8 +1832,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1700,19 +1874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4008FD-6197-5349-B1C4-61D882D46187}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="30.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="30.796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1736,26 +1910,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="43">
         <v>45418</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1772,213 +1946,321 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="15"/>
     </row>
@@ -2007,15 +2289,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="30.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="30.796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -2039,26 +2321,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="43">
         <v>45425</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -2075,8 +2357,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2088,8 +2370,8 @@
       <c r="F6" s="7"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2099,8 +2381,8 @@
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2110,8 +2392,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2123,8 +2405,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2134,8 +2416,8 @@
       <c r="F10" s="8"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -2145,8 +2427,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2158,8 +2440,8 @@
       <c r="F12" s="7"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2169,8 +2451,8 @@
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2180,8 +2462,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2193,8 +2475,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2204,8 +2486,8 @@
       <c r="F16" s="8"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2215,8 +2497,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2228,8 +2510,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2239,8 +2521,8 @@
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -2250,8 +2532,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2263,8 +2545,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2274,8 +2556,8 @@
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -2310,15 +2592,15 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="30.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="30.796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -2342,26 +2624,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="43">
         <v>45432</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -2378,8 +2660,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2391,8 +2673,8 @@
       <c r="F6" s="7"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2402,8 +2684,8 @@
       <c r="F7" s="8"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2413,8 +2695,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2426,8 +2708,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2437,8 +2719,8 @@
       <c r="F10" s="8"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -2448,8 +2730,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2461,8 +2743,8 @@
       <c r="F12" s="7"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2472,8 +2754,8 @@
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2483,8 +2765,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2496,8 +2778,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2507,8 +2789,8 @@
       <c r="F16" s="8"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2518,8 +2800,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2531,8 +2813,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2542,8 +2824,8 @@
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -2553,8 +2835,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2566,8 +2848,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2577,8 +2859,8 @@
       <c r="F22" s="8"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>

--- a/Standup_Meeting_StyleSync_G11.xlsx
+++ b/Standup_Meeting_StyleSync_G11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2efca9f02ab0b566/Desktop/school work omegalul/Term 2/5 week term/StyleSync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{E237BC1A-F91E-DA44-AB6B-3B7A993CB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1703ADF-AF4A-4818-B2E0-A481162B41BD}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{E237BC1A-F91E-DA44-AB6B-3B7A993CB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F151D740-46A8-4E76-87B3-906338FCC416}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F7BC2121-4CE5-1349-917D-30B6646CA147}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
   <si>
     <t>StyleSync</t>
   </si>
@@ -481,21 +481,10 @@
     <t>Nothing</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Design and </t>
-  </si>
-  <si>
     <t>Git problems</t>
   </si>
   <si>
     <t xml:space="preserve"> Did not work much on project</t>
-  </si>
-  <si>
-    <t>Database Design+D6:D22D9DD6:D23</t>
-  </si>
-  <si>
-    <t>API 
-Branching
- Database</t>
   </si>
   <si>
     <t xml:space="preserve">Branching
@@ -538,6 +527,17 @@
   </si>
   <si>
     <t>Continue working on the design on html pages</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Database Design and implementation</t>
+  </si>
+  <si>
+    <t>API 
+Branching
+Database</t>
   </si>
 </sst>
 </file>
@@ -1874,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4008FD-6197-5349-B1C4-61D882D46187}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1957,13 +1957,17 @@
         <v>86</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
@@ -1974,13 +1978,17 @@
         <v>87</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
@@ -1991,13 +1999,17 @@
         <v>88</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
@@ -2010,13 +2022,17 @@
         <v>23</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
@@ -2027,13 +2043,17 @@
         <v>23</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="47"/>
@@ -2044,13 +2064,17 @@
         <v>23</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
@@ -2063,13 +2087,17 @@
         <v>89</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
@@ -2080,13 +2108,17 @@
         <v>90</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
@@ -2097,13 +2129,17 @@
         <v>91</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
@@ -2116,13 +2152,17 @@
         <v>92</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
@@ -2133,13 +2173,17 @@
         <v>93</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47"/>
@@ -2150,13 +2194,17 @@
         <v>94</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
@@ -2169,13 +2217,17 @@
         <v>95</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
@@ -2186,13 +2238,17 @@
         <v>96</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37"/>
@@ -2203,13 +2259,17 @@
         <v>97</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
@@ -2222,13 +2282,17 @@
         <v>98</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
@@ -2239,13 +2303,17 @@
         <v>99</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
@@ -2256,26 +2324,30 @@
         <v>100</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2569,16 +2641,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2872,16 +2944,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
